--- a/data/trans_dic/P21D_1_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P21D_1_R-Clase-trans_dic.xlsx
@@ -699,7 +699,7 @@
         <v>0.001813496504847828</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.0007811156801354521</v>
+        <v>0.000781115680135452</v>
       </c>
     </row>
     <row r="14">
@@ -726,10 +726,10 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.01007095143806669</v>
+        <v>0.009209472895739434</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.003963266080479198</v>
+        <v>0.004650777125526332</v>
       </c>
     </row>
     <row r="16">
@@ -750,7 +750,7 @@
         <v>0.00192381065126285</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.001142671624662223</v>
+        <v>0.001142671624662222</v>
       </c>
     </row>
     <row r="17">
@@ -777,10 +777,10 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.01130901065600092</v>
+        <v>0.01048760669663265</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.005835913807920845</v>
+        <v>0.006939609523780811</v>
       </c>
     </row>
     <row r="19">
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.0008795050202013229</v>
+        <v>0.0008795050202013228</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.0004569570299805151</v>
@@ -871,10 +871,10 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.002681173925636871</v>
+        <v>0.002806867086328835</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.00160343183265414</v>
+        <v>0.00158811450918059</v>
       </c>
     </row>
     <row r="25">
@@ -1214,10 +1214,10 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>3900</v>
+        <v>3566</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>3563</v>
+        <v>4181</v>
       </c>
     </row>
     <row r="20">
@@ -1282,10 +1282,10 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>4401</v>
+        <v>4081</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3823</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="24">
@@ -1410,10 +1410,10 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>4423</v>
+        <v>4630</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>5091</v>
+        <v>5042</v>
       </c>
     </row>
     <row r="32">
